--- a/src/texts/useCases/static/mozeconomia-dados.xlsx
+++ b/src/texts/useCases/static/mozeconomia-dados.xlsx
@@ -14,39 +14,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Profession</t>
-  </si>
-  <si>
-    <t>Class</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+  <si>
+    <t>Name Cliente</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Id da Fatura</t>
+  </si>
+  <si>
+    <t>Plano/Pacode</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Estado</t>
   </si>
   <si>
     <t>Derek</t>
   </si>
   <si>
-    <t>Software Developer</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>7674</t>
-  </si>
-  <si>
-    <t>8849</t>
-  </si>
-  <si>
-    <t>99</t>
+    <t>derek@gmail.com</t>
+  </si>
+  <si>
+    <t>001A</t>
+  </si>
+  <si>
+    <t>Unipessoal</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>Pago</t>
+  </si>
+  <si>
+    <t>Tomas</t>
+  </si>
+  <si>
+    <t>002A</t>
+  </si>
+  <si>
+    <t>Piter</t>
+  </si>
+  <si>
+    <t>003A</t>
   </si>
 </sst>
 </file>
@@ -410,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D4"/>
+  <dimension ref="B1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:4" ht="30" customHeight="1">
+    <row r="1" spans="2:7" ht="25" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,38 +441,74 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:7">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/texts/useCases/static/mozeconomia-dados.xlsx
+++ b/src/texts/useCases/static/mozeconomia-dados.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+  <si>
+    <t>Vendas</t>
+  </si>
+  <si>
+    <t>25 de Agosto 2022, dia da grande promoção</t>
+  </si>
   <si>
     <t>Name Cliente</t>
   </si>
@@ -68,9 +74,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -126,9 +140,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
@@ -425,90 +440,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G4"/>
+  <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7" ht="25" customHeight="1">
+    <row r="1" spans="2:7" ht="20" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="2:7" ht="20" customHeight="1">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="4" spans="2:7" ht="25" customHeight="1">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="2:7">
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E5" t="s">
         <v>11</v>
       </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="2:7">
-      <c r="B3" t="s">
+    <row r="6" spans="2:7">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
